--- a/Mappings/PlannedCareActivity - STU3.xlsx
+++ b/Mappings/PlannedCareActivity - STU3.xlsx
@@ -10,13 +10,14 @@
     <sheet name="OverdrachtGeplandeZorgActivitei" sheetId="1" r:id="rId1"/>
     <sheet name="OrderStatusCodelijst" sheetId="2" r:id="rId2"/>
     <sheet name="OrderTypeCodelijst" sheetId="3" r:id="rId3"/>
+    <sheet name="Appointment status mapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -45,9 +46,6 @@
     <t>RF</t>
   </si>
   <si>
-    <t>OverdrachtGeplandeZorgActiviteit Verrichting [R]</t>
-  </si>
-  <si>
     <t>ProcedureRequest</t>
   </si>
   <si>
@@ -382,6 +380,183 @@
   </si>
   <si>
     <t>ProcedureRequest.requester.agent</t>
+  </si>
+  <si>
+    <t>MP9 resources</t>
+  </si>
+  <si>
+    <t>See mapping below</t>
+  </si>
+  <si>
+    <t>OverdrachtGeplandeZorgActiviteit Verrichting + VerpleegkunidgeActie [R]</t>
+  </si>
+  <si>
+    <t>Frequentie</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>PrecedureRequest.occurence.timing.frequency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>PrecedureRequest.occurence.timing.period</t>
+  </si>
+  <si>
+    <t>Verrichting / VerpleegkundigeActie</t>
+  </si>
+  <si>
+    <t>VerpleegkundigeActie</t>
+  </si>
+  <si>
+    <t>Immunization Recommendation</t>
+  </si>
+  <si>
+    <t>OverdrachtGeplandeZorgActiviteit Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImmunizationRecommendation has no status. </t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>OverdrachtGeplandeZorgActiviteit Contact</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>ContactMet::Zorgverlener</t>
+  </si>
+  <si>
+    <t>ContactWith::HealthcareProvider</t>
+  </si>
+  <si>
+    <t>RedenContact [C]</t>
+  </si>
+  <si>
+    <t>Probleem::ProbleemNaam</t>
+  </si>
+  <si>
+    <t>Problem::ProblemName</t>
+  </si>
+  <si>
+    <t>AfwijkendeUitslag</t>
+  </si>
+  <si>
+    <t>DeviatingResult</t>
+  </si>
+  <si>
+    <t>Appointment.start</t>
+  </si>
+  <si>
+    <t>Appointment.end</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>None of the participant(s) have finalized their acceptance of the appointment request, and the start/end time may not be set yet.</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Some or all of the participant(s) have not finalized their acceptance of the appointment request.</t>
+  </si>
+  <si>
+    <t>booked</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>All participant(s) have been considered and the appointment is confirmed to go ahead at the date/times specified.</t>
+  </si>
+  <si>
+    <t>arrived</t>
+  </si>
+  <si>
+    <t>Arrived</t>
+  </si>
+  <si>
+    <t>Some of the patients have arrived.</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>Fulfilled</t>
+  </si>
+  <si>
+    <t>This appointment has completed and may have resulted in an encounter.</t>
+  </si>
+  <si>
+    <t>The appointment has been cancelled.</t>
+  </si>
+  <si>
+    <t>noshow</t>
+  </si>
+  <si>
+    <t>No Show</t>
+  </si>
+  <si>
+    <t>Some or all of the participant(s) have not/did not appear for the appointment (usually the patient).</t>
+  </si>
+  <si>
+    <t>Entered in error</t>
+  </si>
+  <si>
+    <t>This instance should not have been part of this patient's medical record.</t>
+  </si>
+  <si>
+    <t>Binding conflicht. FHIR has a Required binding strenght on the PrecedureRequestStatus valueset. Code extension. @Marten: contact ZIB about the Status valueset. The FHIR valueset is more specific for an appointment while the ZIB made a status valueset for a broader range.</t>
+  </si>
+  <si>
+    <t>Appointment.status</t>
+  </si>
+  <si>
+    <t>Appointment.indication</t>
+  </si>
+  <si>
+    <t>Appointment.reason</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType</t>
+  </si>
+  <si>
+    <t>DeviceRequest</t>
+  </si>
+  <si>
+    <t>DeviceRequest.occurrence.start</t>
+  </si>
+  <si>
+    <t>DeviceRequest.codeReference</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
@@ -420,14 +595,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
+      <name val="Open sans"/>
     </font>
   </fonts>
   <fills count="6">
@@ -644,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -701,16 +875,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -729,71 +896,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,34 +1307,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
-    <col min="11" max="11" width="69.140625" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="43"/>
+    <col min="7" max="7" width="23.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="69.140625" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1136,18 +1349,18 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -1157,13 +1370,13 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
@@ -1178,13 +1391,13 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
@@ -1199,20 +1412,20 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15"/>
       <c r="G5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12">
@@ -1220,27 +1433,27 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
@@ -1248,17 +1461,17 @@
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1269,10 +1482,12 @@
       <c r="I8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="21"/>
+      <c r="J8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12">
@@ -1281,42 +1496,48 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="21"/>
+      <c r="J9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12">
@@ -1325,102 +1546,108 @@
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="21"/>
+      <c r="J11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="21"/>
+      <c r="J12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="21"/>
+      <c r="J13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1433,18 +1660,18 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -1454,20 +1681,20 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="11"/>
     </row>
@@ -1477,20 +1704,20 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="18"/>
     </row>
@@ -1500,23 +1727,23 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
       <c r="G21" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="49" t="s">
         <v>92</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1525,226 +1752,971 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="G22" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="31" t="s">
-        <v>96</v>
+      <c r="J22" s="18"/>
+      <c r="K22" s="45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="43">
+      <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12">
+        <v>7</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="48"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="44">
-        <v>12</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="12">
+        <v>8</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="47"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="51"/>
+      <c r="L26" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="20">
+        <v>9</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="L26" s="51"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="51"/>
+      <c r="L27" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="20">
+        <v>10</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="52"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="51"/>
+      <c r="J28" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="39" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="52"/>
-      <c r="K29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="52"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="14" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="51"/>
+      <c r="L29" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="20"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="52"/>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="51"/>
+      <c r="L30" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="12">
+        <v>11</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="L31" s="54"/>
-    </row>
-    <row r="32" spans="1:12" ht="15">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="25.5">
+      <c r="A32" s="12">
+        <v>12</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="J32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="20">
+        <v>13</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="38">
+        <v>14</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3"/>
+      <c r="B39" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="1:12" ht="25.5">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:12" ht="25.5">
+      <c r="A41" s="12">
+        <v>2</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="12">
+        <v>3</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="12">
+        <v>4</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="20">
+        <v>5</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="20">
+        <v>6</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="D45" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="51"/>
+      <c r="I45" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="21">
+        <v>7</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="H47" s="52"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="H48" s="52"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3"/>
+      <c r="B50" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="42"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="44"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="12">
+        <v>2</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" ht="51">
+      <c r="A53" s="12">
+        <v>3</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="61"/>
+      <c r="I53" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="12">
+        <v>4</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="53"/>
+      <c r="K54" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="20">
+        <v>5</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="44"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="20">
+        <v>6</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="D56" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="K56" s="63"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="12">
+        <v>7</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="K57" s="63"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="12">
+        <v>8</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="63"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="12">
+        <v>9</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="63"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="20">
+        <v>10</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="63"/>
+      <c r="L60" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="38">
+        <v>11</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="72"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3"/>
+      <c r="B65" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="5">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="K66" s="67"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="12">
+        <v>2</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="K67" s="53"/>
+    </row>
+    <row r="68" spans="1:12" ht="38.25">
+      <c r="A68" s="12">
+        <v>3</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="61"/>
+      <c r="I68" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" s="64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="12">
+        <v>4</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="G69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="53"/>
+      <c r="K69" s="68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="38">
+        <v>5</v>
+      </c>
+      <c r="B70" s="69"/>
+      <c r="C70" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K70" s="71"/>
+      <c r="L70" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="20"/>
+      <c r="B71" s="28"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="H71" s="52"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="12"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:I39"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B17:H17"/>
@@ -1760,7 +2732,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1775,56 +2747,56 @@
     <col min="8" max="8" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" s="27" customFormat="1">
+      <c r="A1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1832,39 +2804,39 @@
         <v>385644000</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
         <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1872,263 +2844,263 @@
         <v>385651009</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
         <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="34" t="s">
+      <c r="G17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="H17" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
         <v>89</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>90</v>
       </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" s="34" customFormat="1"/>
+    </row>
+    <row r="26" spans="6:8" s="27" customFormat="1"/>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="34" t="s">
+      <c r="B39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="C39" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="D39" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="E39" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>44</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>385644000</v>
       </c>
       <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
         <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>385651009</v>
       </c>
       <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
         <v>56</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
         <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
       <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
         <v>43</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2151,4 +3123,201 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>385644000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>385651009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mappings/PlannedCareActivity - STU3.xlsx
+++ b/Mappings/PlannedCareActivity - STU3.xlsx
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -901,41 +901,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1004,6 +974,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,34 +1315,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="43"/>
-    <col min="7" max="7" width="23.5703125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="69.140625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="6" width="9.140625" style="33"/>
+    <col min="7" max="7" width="23.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="69.140625" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1349,16 +1355,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="44"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12">
@@ -1445,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="18"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="20">
@@ -1461,8 +1467,8 @@
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="44"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="20">
@@ -1632,22 +1638,22 @@
       <c r="I14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1660,16 +1666,16 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1748,7 @@
       <c r="J21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="39" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1764,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="18"/>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1782,8 +1788,8 @@
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="44"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="20">
@@ -1799,14 +1805,14 @@
       <c r="G24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="14" t="s">
         <v>130</v>
       </c>
@@ -1815,7 +1821,7 @@
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
         <v>98</v>
@@ -1825,14 +1831,14 @@
       <c r="G25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="51"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="20" t="s">
         <v>6</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="14" t="s">
         <v>130</v>
       </c>
@@ -1841,8 +1847,8 @@
       <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="29" t="s">
         <v>100</v>
       </c>
@@ -1851,15 +1857,15 @@
       <c r="G26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="51"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="39" t="s">
+      <c r="K26" s="41"/>
+      <c r="L26" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1867,8 +1873,8 @@
       <c r="A27" s="20">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="14" t="s">
         <v>102</v>
       </c>
@@ -1877,15 +1883,15 @@
       <c r="G27" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="39" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1893,8 +1899,8 @@
       <c r="A28" s="20">
         <v>10</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="14" t="s">
         <v>104</v>
       </c>
@@ -1903,22 +1909,22 @@
       <c r="G28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="39" t="s">
+      <c r="K28" s="41"/>
+      <c r="L28" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="20"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="14" t="s">
         <v>124</v>
       </c>
@@ -1927,23 +1933,23 @@
       <c r="G29" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="39" t="s">
+      <c r="K29" s="41"/>
+      <c r="L29" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="20"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>125</v>
       </c>
       <c r="E30" s="14"/>
@@ -1951,15 +1957,15 @@
       <c r="G30" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="39" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="31" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1967,7 +1973,7 @@
       <c r="A31" s="12">
         <v>11</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
         <v>106</v>
@@ -1977,12 +1983,12 @@
       <c r="G31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="18"/>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="41" t="s">
         <v>116</v>
       </c>
       <c r="L31" s="14" t="s">
@@ -1993,8 +1999,8 @@
       <c r="A32" s="12">
         <v>12</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="14" t="s">
         <v>107</v>
       </c>
@@ -2003,17 +2009,17 @@
       <c r="G32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2021,7 +2027,7 @@
       <c r="A33" s="20">
         <v>13</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
         <v>109</v>
@@ -2031,14 +2037,14 @@
       <c r="G33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="51"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="48" t="s">
         <v>117</v>
       </c>
       <c r="L33" s="14" t="s">
@@ -2046,11 +2052,11 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="38">
+      <c r="A34" s="30">
         <v>14</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="23" t="s">
         <v>111</v>
       </c>
@@ -2059,15 +2065,15 @@
       <c r="G34" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="60"/>
-      <c r="L34" s="43" t="s">
+      <c r="K34" s="50"/>
+      <c r="L34" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2075,15 +2081,15 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
       <c r="I38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2096,20 +2102,20 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3"/>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42" t="s">
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="42"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="1:12" ht="25.5">
       <c r="A40" s="5">
@@ -2132,7 +2138,7 @@
       <c r="J40" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="44"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="25.5">
       <c r="A41" s="12">
@@ -2171,12 +2177,12 @@
       <c r="G42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="61"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J42" s="18"/>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2198,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="K43" s="45" t="s">
+      <c r="K43" s="35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2216,8 +2222,8 @@
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="67"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="57"/>
       <c r="L44" s="14" t="s">
         <v>138</v>
       </c>
@@ -2232,58 +2238,58 @@
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="62" t="s">
+      <c r="H45" s="41"/>
+      <c r="I45" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J45" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="63"/>
+      <c r="K45" s="53"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="21">
         <v>7</v>
       </c>
-      <c r="B46" s="54"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="H47" s="52"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="H48" s="52"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
       <c r="I49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2296,20 +2302,20 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3"/>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="42" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="42"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="5">
@@ -2326,13 +2332,13 @@
         <v>24</v>
       </c>
       <c r="H51" s="16"/>
-      <c r="I51" s="65" t="s">
+      <c r="I51" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="51" t="s">
+      <c r="J51" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="K51" s="44"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="12">
@@ -2349,10 +2355,10 @@
         <v>25</v>
       </c>
       <c r="H52" s="16"/>
-      <c r="I52" s="66" t="s">
+      <c r="I52" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="51" t="s">
+      <c r="J52" s="41" t="s">
         <v>149</v>
       </c>
       <c r="K52" s="18"/>
@@ -2371,14 +2377,14 @@
       <c r="G53" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="61"/>
-      <c r="I53" s="65" t="s">
+      <c r="H53" s="51"/>
+      <c r="I53" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="53" t="s">
+      <c r="J53" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="K53" s="49" t="s">
+      <c r="K53" s="39" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2396,11 +2402,11 @@
         <v>13</v>
       </c>
       <c r="H54" s="16"/>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="53"/>
-      <c r="K54" s="45" t="s">
+      <c r="J54" s="43"/>
+      <c r="K54" s="35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2417,9 +2423,9 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="44"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="34"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="20">
@@ -2431,128 +2437,128 @@
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51" t="s">
+      <c r="H56" s="41"/>
+      <c r="I56" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="51" t="s">
+      <c r="J56" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="K56" s="63"/>
+      <c r="K56" s="53"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="12">
         <v>7</v>
       </c>
-      <c r="B57" s="52"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="51" t="s">
+      <c r="J57" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="K57" s="63"/>
+      <c r="K57" s="53"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="12">
         <v>8</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="63"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="53"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="12">
         <v>9</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51" t="s">
+      <c r="H59" s="41"/>
+      <c r="I59" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="51" t="s">
+      <c r="J59" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="K59" s="63"/>
+      <c r="K59" s="53"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="20">
         <v>10</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51" t="s">
+      <c r="H60" s="41"/>
+      <c r="I60" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="51" t="s">
+      <c r="J60" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="43" t="s">
+      <c r="K60" s="53"/>
+      <c r="L60" s="33" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="38">
+      <c r="A61" s="30">
         <v>11</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54" t="s">
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54" t="s">
+      <c r="F61" s="44"/>
+      <c r="G61" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55" t="s">
+      <c r="H61" s="45"/>
+      <c r="I61" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="K61" s="72"/>
+      <c r="K61" s="62"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
       <c r="I64" s="1" t="s">
         <v>2</v>
       </c>
@@ -2565,20 +2571,20 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="3"/>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="42" t="s">
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="K65" s="42"/>
+      <c r="K65" s="32"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5">
@@ -2595,13 +2601,13 @@
         <v>24</v>
       </c>
       <c r="H66" s="16"/>
-      <c r="I66" s="65" t="s">
+      <c r="I66" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="51" t="s">
+      <c r="J66" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="K66" s="67"/>
+      <c r="K66" s="57"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="12">
@@ -2618,13 +2624,13 @@
         <v>25</v>
       </c>
       <c r="H67" s="16"/>
-      <c r="I67" s="66" t="s">
+      <c r="I67" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="51" t="s">
+      <c r="J67" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="K67" s="53"/>
+      <c r="K67" s="43"/>
     </row>
     <row r="68" spans="1:12" ht="38.25">
       <c r="A68" s="12">
@@ -2640,14 +2646,14 @@
       <c r="G68" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="61"/>
-      <c r="I68" s="65" t="s">
+      <c r="H68" s="51"/>
+      <c r="I68" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="64" t="s">
+      <c r="K68" s="54" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2665,19 +2671,19 @@
         <v>13</v>
       </c>
       <c r="H69" s="16"/>
-      <c r="I69" s="65" t="s">
+      <c r="I69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="53"/>
-      <c r="K69" s="68" t="s">
+      <c r="J69" s="43"/>
+      <c r="K69" s="58" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="38">
+      <c r="A70" s="30">
         <v>5</v>
       </c>
-      <c r="B70" s="69"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="23" t="s">
         <v>14</v>
       </c>
@@ -2686,14 +2692,14 @@
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="70" t="s">
+      <c r="I70" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="55" t="s">
+      <c r="J70" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="K70" s="71"/>
-      <c r="L70" s="43" t="s">
+      <c r="K70" s="61"/>
+      <c r="L70" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2702,25 +2708,25 @@
       <c r="B71" s="28"/>
       <c r="E71" s="14"/>
       <c r="F71" s="15"/>
-      <c r="H71" s="52"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="12"/>
-      <c r="B72" s="52"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="B64:H64"/>
     <mergeCell ref="B65:I65"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2748,16 +2754,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="27" customFormat="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
@@ -3144,11 +3150,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">

--- a/Mappings/PlannedCareActivity - STU3.xlsx
+++ b/Mappings/PlannedCareActivity - STU3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -557,13 +557,19 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>OverdrachtGeplandeZorgActiviteit MedicalAid</t>
+  </si>
+  <si>
+    <t>DeviceRequest.occurrence.end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -603,8 +609,20 @@
       <color rgb="FFFF0000"/>
       <name val="Open sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +651,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -814,11 +842,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -975,27 +1005,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,14 +1042,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1313,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1334,15 +1368,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,16 +1389,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="71"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1641,19 +1675,19 @@
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1664,24 +1698,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="71"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1703,8 +1737,9 @@
         <v>93</v>
       </c>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="66"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -1726,8 +1761,9 @@
         <v>94</v>
       </c>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" ht="38.25">
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="1:13" ht="38.25">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -1751,8 +1787,9 @@
       <c r="K21" s="39" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="66"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="12">
         <v>4</v>
       </c>
@@ -1773,8 +1810,9 @@
       <c r="K22" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="20">
         <v>5</v>
       </c>
@@ -1790,8 +1828,9 @@
       <c r="I23" s="20"/>
       <c r="J23" s="40"/>
       <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="66"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="20">
         <v>6</v>
       </c>
@@ -1816,8 +1855,9 @@
       <c r="L24" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="12">
         <v>7</v>
       </c>
@@ -1842,8 +1882,9 @@
       <c r="L25" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="66"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="12">
         <v>8</v>
       </c>
@@ -1868,8 +1909,9 @@
       <c r="L26" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="20">
         <v>9</v>
       </c>
@@ -1894,8 +1936,9 @@
       <c r="L27" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="66"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="20">
         <v>10</v>
       </c>
@@ -1920,8 +1963,9 @@
       <c r="L28" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="66"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="20"/>
       <c r="B29" s="42"/>
       <c r="C29" s="31"/>
@@ -1944,8 +1988,9 @@
       <c r="L29" s="31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="66"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="20"/>
       <c r="B30" s="42"/>
       <c r="C30" s="31"/>
@@ -1968,8 +2013,9 @@
       <c r="L30" s="31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="66"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="12">
         <v>11</v>
       </c>
@@ -1994,8 +2040,9 @@
       <c r="L31" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="25.5">
+      <c r="M31" s="66"/>
+    </row>
+    <row r="32" spans="1:13" ht="25.5">
       <c r="A32" s="12">
         <v>12</v>
       </c>
@@ -2022,8 +2069,9 @@
       <c r="L32" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="66"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="20">
         <v>13</v>
       </c>
@@ -2050,8 +2098,9 @@
       <c r="L33" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="66"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="30">
         <v>14</v>
       </c>
@@ -2076,20 +2125,21 @@
       <c r="L34" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M34" s="66"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
       <c r="I38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2100,24 +2150,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="3"/>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="32" t="s">
         <v>132</v>
       </c>
       <c r="K39" s="32"/>
     </row>
-    <row r="40" spans="1:12" ht="25.5">
+    <row r="40" spans="1:13" ht="25.5">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -2139,8 +2189,9 @@
         <v>137</v>
       </c>
       <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:12" ht="25.5">
+      <c r="M40" s="66"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.5">
       <c r="A41" s="12">
         <v>2</v>
       </c>
@@ -2162,8 +2213,9 @@
         <v>137</v>
       </c>
       <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="66"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -2185,8 +2237,9 @@
       <c r="K42" s="39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="66"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="12">
         <v>4</v>
       </c>
@@ -2207,8 +2260,9 @@
       <c r="K43" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="66"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="20">
         <v>5</v>
       </c>
@@ -2227,8 +2281,9 @@
       <c r="L44" s="14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="66"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="20">
         <v>6</v>
       </c>
@@ -2249,8 +2304,9 @@
         <v>136</v>
       </c>
       <c r="K45" s="53"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="66"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="21">
         <v>7</v>
       </c>
@@ -2264,32 +2320,33 @@
       <c r="I46" s="63"/>
       <c r="J46" s="62"/>
       <c r="K46" s="62"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="66"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="H47" s="42"/>
       <c r="I47" s="46"/>
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="H48" s="42"/>
       <c r="I48" s="46"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
       <c r="I49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2300,24 +2357,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="3"/>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="32" t="s">
         <v>78</v>
       </c>
       <c r="K50" s="32"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -2339,8 +2396,9 @@
         <v>148</v>
       </c>
       <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="66"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="12">
         <v>2</v>
       </c>
@@ -2362,8 +2420,9 @@
         <v>149</v>
       </c>
       <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" ht="51">
+      <c r="M52" s="66"/>
+    </row>
+    <row r="53" spans="1:13" ht="51">
       <c r="A53" s="12">
         <v>3</v>
       </c>
@@ -2387,8 +2446,9 @@
       <c r="K53" s="39" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="66"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="12">
         <v>4</v>
       </c>
@@ -2409,8 +2469,9 @@
       <c r="K54" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="66"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="20">
         <v>5</v>
       </c>
@@ -2426,8 +2487,9 @@
       <c r="I55" s="56"/>
       <c r="J55" s="40"/>
       <c r="K55" s="34"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="66"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="20">
         <v>6</v>
       </c>
@@ -2441,15 +2503,16 @@
         <v>140</v>
       </c>
       <c r="H56" s="41"/>
-      <c r="I56" s="74" t="s">
+      <c r="I56" s="64" t="s">
         <v>7</v>
       </c>
       <c r="J56" s="41" t="s">
         <v>175</v>
       </c>
       <c r="K56" s="53"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="77"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="12">
         <v>7</v>
       </c>
@@ -2462,15 +2525,16 @@
         <v>142</v>
       </c>
       <c r="H57" s="41"/>
-      <c r="I57" s="74" t="s">
+      <c r="I57" s="64" t="s">
         <v>8</v>
       </c>
       <c r="J57" s="41" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="53"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="66"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="12">
         <v>8</v>
       </c>
@@ -2478,11 +2542,12 @@
         <v>143</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="74"/>
+      <c r="I58" s="64"/>
       <c r="J58" s="41"/>
       <c r="K58" s="53"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="66"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="12">
         <v>9</v>
       </c>
@@ -2493,15 +2558,16 @@
         <v>145</v>
       </c>
       <c r="H59" s="41"/>
-      <c r="I59" s="74" t="s">
+      <c r="I59" s="64" t="s">
         <v>8</v>
       </c>
       <c r="J59" s="41" t="s">
         <v>172</v>
       </c>
       <c r="K59" s="53"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="66"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="20">
         <v>10</v>
       </c>
@@ -2512,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="41"/>
-      <c r="I60" s="74" t="s">
+      <c r="I60" s="64" t="s">
         <v>8</v>
       </c>
       <c r="J60" s="41" t="s">
@@ -2522,8 +2588,9 @@
       <c r="L60" s="33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="66"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="30">
         <v>11</v>
       </c>
@@ -2538,27 +2605,28 @@
         <v>147</v>
       </c>
       <c r="H61" s="45"/>
-      <c r="I61" s="75" t="s">
+      <c r="I61" s="65" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="45" t="s">
         <v>173</v>
       </c>
       <c r="K61" s="62"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M61" s="66"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
       <c r="I64" s="1" t="s">
         <v>2</v>
       </c>
@@ -2569,24 +2637,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="3"/>
-      <c r="B65" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
+      <c r="B65" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="71"/>
       <c r="J65" s="32" t="s">
         <v>176</v>
       </c>
       <c r="K65" s="32"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -2608,8 +2676,9 @@
         <v>177</v>
       </c>
       <c r="K66" s="57"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="66"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="12">
         <v>2</v>
       </c>
@@ -2628,11 +2697,12 @@
         <v>6</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K67" s="43"/>
-    </row>
-    <row r="68" spans="1:12" ht="38.25">
+      <c r="M67" s="66"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="12">
         <v>3</v>
       </c>
@@ -2653,11 +2723,10 @@
       <c r="J68" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="K68" s="54"/>
+      <c r="M68" s="66"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="12">
         <v>4</v>
       </c>
@@ -2678,8 +2747,9 @@
       <c r="K69" s="58" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="66"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="30">
         <v>5</v>
       </c>
@@ -2702,15 +2772,16 @@
       <c r="L70" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="66"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="20"/>
       <c r="B71" s="28"/>
       <c r="E71" s="14"/>
       <c r="F71" s="15"/>
       <c r="H71" s="42"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="12"/>
       <c r="B72" s="42"/>
       <c r="C72" s="14"/>
@@ -2754,16 +2825,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="27" customFormat="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
@@ -3150,11 +3221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
